--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -807,17 +807,18 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp
+          <t>Klotsporig murkla
+Motaggsvamp
 Spillkråka
 Blåmossa
 Rödbrun jordstjärna
@@ -862,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1734,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1791,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1853,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1910,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1967,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2024,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2081,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2143,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2200,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2257,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2314,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2371,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2428,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2485,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2542,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2604,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2661,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2723,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2780,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2842,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2904,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3028,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3090,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3204,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3261,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3318,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3375,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3432,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3494,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3551,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3608,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3665,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3722,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3779,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3836,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3893,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3955,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4017,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4079,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4141,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4203,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4265,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4327,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4622,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4679,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4917,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4974,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5031,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5574,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5688,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5921,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5978,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 34890-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 34890-2018.xlsx", "A 34890-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 34890-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 34890-2018.png", "A 34890-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 34890-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 34890-2018.docx", "A 34890-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 34890-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 34890-2018.docx", "A 34890-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 34890-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 34890-2018.docx", "A 34890-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 34890-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 34890-2018.docx", "A 34890-2018")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,27 +736,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 20601-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 20601-2022.xlsx", "A 20601-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 20601-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 20601-2022.png", "A 20601-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 20601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 20601-2022.docx", "A 20601-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 20601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 20601-2022.docx", "A 20601-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 20601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 20601-2022.docx", "A 20601-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 20601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 20601-2022.docx", "A 20601-2022")</f>
         <v/>
       </c>
     </row>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,27 +829,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 31366-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 31366-2021.xlsx", "A 31366-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 31366-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 31366-2021.png", "A 31366-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 31366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 31366-2021.docx", "A 31366-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 31366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 31366-2021.docx", "A 31366-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 31366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 31366-2021.docx", "A 31366-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 31366-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 31366-2021.docx", "A 31366-2021")</f>
         <v/>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,27 +917,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73783-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73783-2021.xlsx", "A 73783-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73783-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73783-2021.png", "A 73783-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73783-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73783-2021.docx", "A 73783-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73783-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73783-2021.docx", "A 73783-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73783-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73783-2021.docx", "A 73783-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73783-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73783-2021.docx", "A 73783-2021")</f>
         <v/>
       </c>
     </row>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,27 +1004,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 31335-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 31335-2021.xlsx", "A 31335-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 31335-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 31335-2021.png", "A 31335-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 31335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 31335-2021.docx", "A 31335-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 31335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 31335-2021.docx", "A 31335-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 31335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 31335-2021.docx", "A 31335-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 31335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 31335-2021.docx", "A 31335-2021")</f>
         <v/>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,27 +1095,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 9956-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 9956-2021.xlsx", "A 9956-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 9956-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 9956-2021.png", "A 9956-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 9956-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 9956-2021.docx", "A 9956-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 9956-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 9956-2021.docx", "A 9956-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 9956-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 9956-2021.docx", "A 9956-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 9956-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 9956-2021.docx", "A 9956-2021")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,27 +1180,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 47329-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 47329-2020.xlsx", "A 47329-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 47329-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 47329-2020.png", "A 47329-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 47329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 47329-2020.docx", "A 47329-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 47329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 47329-2020.docx", "A 47329-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 47329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 47329-2020.docx", "A 47329-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 47329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 47329-2020.docx", "A 47329-2020")</f>
         <v/>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,27 +1265,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73773-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73773-2021.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73773-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73773-2021.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73773-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73773-2021.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73773-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73773-2021.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73773-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73773-2021.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73773-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73773-2021.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,27 +1350,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73787-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 73787-2021.xlsx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73787-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 73787-2021.png", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73787-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 73787-2021.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73787-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 73787-2021.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73787-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 73787-2021.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73787-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 73787-2021.docx", "A 73787-2021")</f>
         <v/>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,27 +1440,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 7285-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 7285-2022.xlsx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 7285-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 7285-2022.png", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 7285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 7285-2022.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 7285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 7285-2022.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 7285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 7285-2022.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 7285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 7285-2022.docx", "A 7285-2022")</f>
         <v/>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1525,27 +1525,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 7955-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/artfynd/A 7955-2023.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 7955-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/kartor/A 7955-2023.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 7955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomål/A 7955-2023.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 7955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/klagomålsmail/A 7955-2023.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 7955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsyn/A 7955-2023.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 7955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPLANDS-BRO/tillsynsmail/A 7955-2023.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>44368</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44552</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44252</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44097</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44973</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43549</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43614</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43671</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43671</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43671</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43691</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43798</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43866</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44167</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44180</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>44180</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44181</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44181</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44354</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44368</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44424</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44603</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44609</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44655</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44770</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44770</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44838</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44845</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44865</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>44901</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44950</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44950</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44959</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45013</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45021</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45063</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45096</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45096</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45096</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45117</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
